--- a/biology/Botanique/Christian_Friedrich_Heinrich_Wimmer/Christian_Friedrich_Heinrich_Wimmer.xlsx
+++ b/biology/Botanique/Christian_Friedrich_Heinrich_Wimmer/Christian_Friedrich_Heinrich_Wimmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Friedrich Heinrich Wimmer (30 octobre 1803 – 12 mars 1868) est un enseignant et botaniste allemand né à Breslau.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il enseigne  à l'école publique de Breslau. il est l'auteur de plusieurs publications sur la flore de Silésie. Il se spécialise dans l'étude du genre Salix, les saules. Le genre Wimmeria (en), de la famille des Celastraceae, lui doit son nom[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il enseigne  à l'école publique de Breslau. il est l'auteur de plusieurs publications sur la flore de Silésie. Il se spécialise dans l'étude du genre Salix, les saules. Le genre Wimmeria (en), de la famille des Celastraceae, lui doit son nom,.
 En 1866, Wimmer publie un ouvrage  sur l'ancien naturaliste grec Theophrastus : Theophrasti Eresii Opera quae supersunt omnia.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Sélection d'œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora Silesiae (Flore de Silésie), (Silesian flora), avec Heinrich Emanuel Grabowski (de) (1792–1842), de 1827 à 1829.
 Flora von Schlesien (Flora of Silesia), 1832.
